--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Syed\Desktop\framework\selenium\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F79A110-CAD9-4454-93B0-1891327849BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B39768F-E2B4-43B8-8043-32F4D11F25E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
